--- a/Buncombe_County_2020/scenarios.xlsx
+++ b/Buncombe_County_2020/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel ludolf\Documents\benefits-cliff\Buncombe_County_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2DC63B-4F98-4AE3-810F-5FCCE65BC283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB16849-7B91-42F5-8C38-6C2129DCFA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{B3C2847B-437E-475A-835F-649BB81B5A48}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A8:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +571,7 @@
         <v>1087.5999999999999</v>
       </c>
       <c r="E9" s="6">
-        <f>SUM(C9:D9)</f>
+        <f t="shared" ref="E9:E14" si="0">SUM(C9:D9)</f>
         <v>5611.6</v>
       </c>
       <c r="F9" s="5">
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <f>SUM(C10:D10)</f>
+        <f t="shared" si="0"/>
         <v>4698</v>
       </c>
       <c r="F10" s="5"/>
@@ -610,7 +610,7 @@
         <v>22.84</v>
       </c>
       <c r="E11" s="6">
-        <f>SUM(C11:D11)</f>
+        <f t="shared" si="0"/>
         <v>1936.84</v>
       </c>
       <c r="F11" s="5">
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <f>SUM(C12:D12)</f>
+        <f t="shared" si="0"/>
         <v>2088</v>
       </c>
       <c r="F12" s="5"/>
@@ -649,7 +649,7 @@
         <v>301.04000000000002</v>
       </c>
       <c r="E13" s="6">
-        <f>SUM(C13:D13)</f>
+        <f t="shared" si="0"/>
         <v>5695.04</v>
       </c>
       <c r="F13" s="5">
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6">
-        <f>SUM(C14:D14)</f>
+        <f t="shared" si="0"/>
         <v>5568</v>
       </c>
       <c r="F14" s="5"/>
